--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>We need a drug class that has dose, on and off rates, and PK. Infusion time.</t>
+  </si>
+  <si>
+    <t>Fix default values in D1 and D2 MSN classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current default values are not appropriate. </t>
   </si>
 </sst>
 </file>
@@ -124,13 +130,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -456,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +496,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -502,7 +511,7 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -524,7 +533,7 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -537,7 +546,7 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -567,6 +576,14 @@
       </c>
       <c r="D8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HLU.CORP.LUNDBECK.COM\Users$\HLU\JAKD\Python\Py-files\Dopamine-Simulation-Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HLU.CORP.LUNDBECK.COM\Users$\HLU\JAKD\Python\Py-files\Dopamine-Simulation-Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Task</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t xml:space="preserve">The current default values are not appropriate. </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used values from PD simulations. </t>
   </si>
 </sst>
 </file>
@@ -130,9 +136,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -143,13 +148,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,125 +472,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="1" max="2" width="31.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="36.5703125" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4" t="s">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -77,12 +77,6 @@
     <t xml:space="preserve">Perhaps a generaic class that could represetn both feedbacks and post synaptic receptors would be practical? Class could have occupancy, on and off rate (for main ligand -- dopamine). </t>
   </si>
   <si>
-    <t xml:space="preserve">Fraction of receptors may be occupied by drug. There is a difference between 'activity' and 'occupancy'. </t>
-  </si>
-  <si>
-    <t>We need a drug class that has dose, on and off rates, and PK. Infusion time.</t>
-  </si>
-  <si>
     <t>Fix default values in D1 and D2 MSN classes</t>
   </si>
   <si>
@@ -93,6 +87,15 @@
   </si>
   <si>
     <t xml:space="preserve">Used values from PD simulations. </t>
+  </si>
+  <si>
+    <t>Fraction of receptors may be occupied by drug. There is a difference between 'activity' and 'occupancy'. Receptors need to know how many species there are in the pool before getting the activity</t>
+  </si>
+  <si>
+    <t>We need a drug class that has dose, on and off rates, and PK. Infusion time. Should it also be here that we represent if it is a agonist/anta…?</t>
+  </si>
+  <si>
+    <t>23-mar-2018</t>
   </si>
 </sst>
 </file>
@@ -147,16 +150,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,18 +487,18 @@
     <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="36.5703125" style="7" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="7"/>
+    <col min="7" max="7" width="36.5703125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -509,7 +512,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -519,25 +522,31 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -546,7 +555,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -558,10 +567,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -591,19 +600,22 @@
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>23-mar-2018</t>
+  </si>
+  <si>
+    <t>Make a simple testscript so that classes can be tested easily</t>
+  </si>
+  <si>
+    <t>TestDAandFRIENDS.py; datadumptestdata.dat.npy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use random seed to generate data and load previous files. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timing of 3.17e4 iterations is ~1 s. </t>
+  </si>
+  <si>
+    <t>26-mar-2018</t>
   </si>
 </sst>
 </file>
@@ -139,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -154,6 +169,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -475,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +530,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -529,7 +547,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
@@ -555,7 +573,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -568,7 +586,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
@@ -618,10 +636,34 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -59,15 +59,9 @@
     <t>Make a real haloperidol system</t>
   </si>
   <si>
-    <t>Depends on the above</t>
-  </si>
-  <si>
     <t>Update documentation</t>
   </si>
   <si>
-    <t>ongoing</t>
-  </si>
-  <si>
     <t>Do we need a real receptor class?</t>
   </si>
   <si>
@@ -111,6 +105,18 @@
   </si>
   <si>
     <t>26-mar-2018</t>
+  </si>
+  <si>
+    <t>almost done. Still needs PK/PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test everything!! </t>
+  </si>
+  <si>
+    <t>See testscripts</t>
+  </si>
+  <si>
+    <t>Test the full haloperidol system</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,23 +546,23 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -564,7 +570,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
@@ -574,89 +583,95 @@
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Task</t>
   </si>
@@ -117,6 +117,21 @@
   </si>
   <si>
     <t>Test the full haloperidol system</t>
+  </si>
+  <si>
+    <t>Update __str__ method in FileReader</t>
+  </si>
+  <si>
+    <t>Clean up file reader</t>
+  </si>
+  <si>
+    <t>Current code is messy and disorganized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must print results-. </t>
+  </si>
+  <si>
+    <t>Get mean AC5 in FileReader</t>
   </si>
 </sst>
 </file>
@@ -499,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,6 +689,27 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Task</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>Get mean AC5 in FileReader</t>
+  </si>
+  <si>
+    <t>FileReader should be called from within the DA class</t>
+  </si>
+  <si>
+    <t>13-apr-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So that one can get access to vmax et cetera. </t>
   </si>
 </sst>
 </file>
@@ -514,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,9 +714,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\HLU.CORP.LUNDBECK.COM\Users$\HLU\JAKD\Python\Py-files\Dopamine-Simulation-Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Python\Py-files\Dopamine-Simulation-Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Task</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t xml:space="preserve">So that one can get access to vmax et cetera. </t>
+  </si>
+  <si>
+    <t>Clean up D1 and D2 MSNs</t>
+  </si>
+  <si>
+    <t>Can we asign a Gs/Gio variable that handles signs?. Currently we ´need different update rules and different  AC5. But perhaps we make generalized functions?</t>
   </si>
 </sst>
 </file>
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,6 +739,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
